--- a/output_data/charts/0500000US39127.xlsx
+++ b/output_data/charts/0500000US39127.xlsx
@@ -131,7 +131,7 @@
               <a:rPr lang="en-US" sz="1400" baseline="0">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Composition of Population by Race - Perry</a:t>
+              <a:t>Composition of Population by Race - Perry County</a:t>
             </a:r>
           </a:p>
         </c:rich>
